--- a/output7/【河洛話注音】《永遇樂．京口北固亭懷古》.xlsx
+++ b/output7/【河洛話注音】《永遇樂．京口北固亭懷古》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D64553AF-07AE-44FF-9553-0EA78FEE2450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B13ADB01-154C-4EE8-870B-F74B98902FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="2880" windowWidth="28170" windowHeight="12555" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -2368,12 +2368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>方音符號</t>
-  </si>
-  <si>
-    <t>TPS</t>
-  </si>
-  <si>
     <t>千古江山，英雄無覓，孫仲謀處。舞榭歌臺，風流總被，雨打風吹去。斜陽草樹，尋常巷陌，人道寄奴曾住。想當年，金戈鐵馬，氣吞萬里如虎。
 元嘉草草，封狼居胥，贏得倉皇北顧。四十三年，望中猶記，烽火揚州路。可堪回首，佛狸祠下，一片神鴉社鼓。憑誰問，廉頗老矣，尚能飯否。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3421,6 +3415,12 @@
   <si>
     <t>《永遇樂．京口北固亭懷古》</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十五音</t>
+  </si>
+  <si>
+    <t>SNI</t>
   </si>
 </sst>
 </file>
@@ -7363,7 +7363,7 @@
   <dimension ref="B1:C14"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="25.5"/>
@@ -7403,7 +7403,7 @@
         <v>165</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -7467,7 +7467,7 @@
         <v>195</v>
       </c>
       <c r="C12" s="103" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="13" spans="2:3">
@@ -7475,7 +7475,7 @@
         <v>331</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>563</v>
+        <v>825</v>
       </c>
     </row>
     <row r="14" spans="2:3">
@@ -7483,7 +7483,7 @@
         <v>332</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>564</v>
+        <v>826</v>
       </c>
     </row>
   </sheetData>
@@ -7513,7 +7513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:AC242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
@@ -7572,48 +7572,48 @@
       <c r="R3" s="81"/>
       <c r="T3" s="90"/>
       <c r="V3" s="104" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="56"/>
       <c r="D4" s="82" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E4" s="82" t="s">
+        <v>656</v>
+      </c>
+      <c r="F4" s="82" t="s">
         <v>658</v>
       </c>
-      <c r="F4" s="82" t="s">
-        <v>660</v>
-      </c>
       <c r="G4" s="82" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H4" s="82"/>
       <c r="I4" s="82" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="J4" s="82" t="s">
+        <v>661</v>
+      </c>
+      <c r="K4" s="82" t="s">
+        <v>684</v>
+      </c>
+      <c r="L4" s="82" t="s">
         <v>663</v>
-      </c>
-      <c r="K4" s="82" t="s">
-        <v>686</v>
-      </c>
-      <c r="L4" s="82" t="s">
-        <v>665</v>
       </c>
       <c r="M4" s="82"/>
       <c r="N4" s="82" t="s">
+        <v>665</v>
+      </c>
+      <c r="O4" s="82" t="s">
         <v>667</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="P4" s="82" t="s">
         <v>669</v>
       </c>
-      <c r="P4" s="82" t="s">
-        <v>671</v>
-      </c>
       <c r="Q4" s="82" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="R4" s="82"/>
       <c r="S4" s="91"/>
@@ -7624,46 +7624,46 @@
         <v>1</v>
       </c>
       <c r="D5" s="97" t="s">
+        <v>564</v>
+      </c>
+      <c r="E5" s="97" t="s">
+        <v>565</v>
+      </c>
+      <c r="F5" s="97" t="s">
         <v>566</v>
       </c>
-      <c r="E5" s="97" t="s">
+      <c r="G5" s="97" t="s">
         <v>567</v>
-      </c>
-      <c r="F5" s="97" t="s">
-        <v>568</v>
-      </c>
-      <c r="G5" s="97" t="s">
-        <v>569</v>
       </c>
       <c r="H5" s="97" t="s">
         <v>557</v>
       </c>
       <c r="I5" s="97" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="J5" s="97" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K5" s="97" t="s">
         <v>558</v>
       </c>
       <c r="L5" s="97" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="M5" s="97" t="s">
         <v>557</v>
       </c>
       <c r="N5" s="97" t="s">
+        <v>571</v>
+      </c>
+      <c r="O5" s="97" t="s">
+        <v>572</v>
+      </c>
+      <c r="P5" s="97" t="s">
         <v>573</v>
       </c>
-      <c r="O5" s="97" t="s">
+      <c r="Q5" s="97" t="s">
         <v>574</v>
-      </c>
-      <c r="P5" s="97" t="s">
-        <v>575</v>
-      </c>
-      <c r="Q5" s="97" t="s">
-        <v>576</v>
       </c>
       <c r="R5" s="97" t="s">
         <v>559</v>
@@ -7675,42 +7675,42 @@
       <c r="B6" s="58"/>
       <c r="C6" s="85"/>
       <c r="D6" s="83" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E6" s="83" t="s">
+        <v>657</v>
+      </c>
+      <c r="F6" s="83" t="s">
         <v>659</v>
       </c>
-      <c r="F6" s="83" t="s">
-        <v>661</v>
-      </c>
       <c r="G6" s="83" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="H6" s="83"/>
       <c r="I6" s="83" t="s">
+        <v>660</v>
+      </c>
+      <c r="J6" s="83" t="s">
         <v>662</v>
       </c>
-      <c r="J6" s="83" t="s">
+      <c r="K6" s="83" t="s">
+        <v>685</v>
+      </c>
+      <c r="L6" s="83" t="s">
         <v>664</v>
-      </c>
-      <c r="K6" s="83" t="s">
-        <v>687</v>
-      </c>
-      <c r="L6" s="83" t="s">
-        <v>666</v>
       </c>
       <c r="M6" s="83"/>
       <c r="N6" s="83" t="s">
+        <v>666</v>
+      </c>
+      <c r="O6" s="83" t="s">
         <v>668</v>
       </c>
-      <c r="O6" s="83" t="s">
+      <c r="P6" s="83" t="s">
         <v>670</v>
       </c>
-      <c r="P6" s="83" t="s">
-        <v>672</v>
-      </c>
       <c r="Q6" s="83" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="R6" s="83"/>
       <c r="S6" s="93"/>
@@ -7740,45 +7740,45 @@
     <row r="8" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="56"/>
       <c r="D8" s="82" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E8" s="82" t="s">
         <v>325</v>
       </c>
       <c r="F8" s="82" t="s">
+        <v>673</v>
+      </c>
+      <c r="G8" s="82" t="s">
         <v>675</v>
-      </c>
-      <c r="G8" s="82" t="s">
-        <v>677</v>
       </c>
       <c r="H8" s="82"/>
       <c r="I8" s="82" t="s">
+        <v>677</v>
+      </c>
+      <c r="J8" s="82" t="s">
+        <v>686</v>
+      </c>
+      <c r="K8" s="82" t="s">
         <v>679</v>
       </c>
-      <c r="J8" s="82" t="s">
+      <c r="L8" s="82" t="s">
         <v>688</v>
-      </c>
-      <c r="K8" s="82" t="s">
-        <v>681</v>
-      </c>
-      <c r="L8" s="82" t="s">
-        <v>690</v>
       </c>
       <c r="M8" s="82"/>
       <c r="N8" s="82" t="s">
         <v>477</v>
       </c>
       <c r="O8" s="82" t="s">
+        <v>690</v>
+      </c>
+      <c r="P8" s="82" t="s">
+        <v>677</v>
+      </c>
+      <c r="Q8" s="82" t="s">
+        <v>807</v>
+      </c>
+      <c r="R8" s="82" t="s">
         <v>692</v>
-      </c>
-      <c r="P8" s="82" t="s">
-        <v>679</v>
-      </c>
-      <c r="Q8" s="82" t="s">
-        <v>809</v>
-      </c>
-      <c r="R8" s="82" t="s">
-        <v>694</v>
       </c>
       <c r="S8" s="91"/>
       <c r="V8" s="105"/>
@@ -7789,46 +7789,46 @@
         <v>2</v>
       </c>
       <c r="D9" s="97" t="s">
+        <v>575</v>
+      </c>
+      <c r="E9" s="97" t="s">
+        <v>576</v>
+      </c>
+      <c r="F9" s="97" t="s">
         <v>577</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="G9" s="97" t="s">
         <v>578</v>
-      </c>
-      <c r="F9" s="97" t="s">
-        <v>579</v>
-      </c>
-      <c r="G9" s="97" t="s">
-        <v>580</v>
       </c>
       <c r="H9" s="97" t="s">
         <v>557</v>
       </c>
       <c r="I9" s="97" t="s">
+        <v>579</v>
+      </c>
+      <c r="J9" s="97" t="s">
+        <v>580</v>
+      </c>
+      <c r="K9" s="97" t="s">
         <v>581</v>
       </c>
-      <c r="J9" s="97" t="s">
+      <c r="L9" s="97" t="s">
         <v>582</v>
-      </c>
-      <c r="K9" s="97" t="s">
-        <v>583</v>
-      </c>
-      <c r="L9" s="97" t="s">
-        <v>584</v>
       </c>
       <c r="M9" s="97" t="s">
         <v>557</v>
       </c>
       <c r="N9" s="97" t="s">
+        <v>583</v>
+      </c>
+      <c r="O9" s="97" t="s">
+        <v>584</v>
+      </c>
+      <c r="P9" s="97" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q9" s="97" t="s">
         <v>585</v>
-      </c>
-      <c r="O9" s="97" t="s">
-        <v>586</v>
-      </c>
-      <c r="P9" s="97" t="s">
-        <v>581</v>
-      </c>
-      <c r="Q9" s="97" t="s">
-        <v>587</v>
       </c>
       <c r="R9" s="97" t="s">
         <v>4</v>
@@ -7840,45 +7840,45 @@
     <row r="10" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="58"/>
       <c r="D10" s="83" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E10" s="83" t="s">
         <v>326</v>
       </c>
       <c r="F10" s="83" t="s">
+        <v>674</v>
+      </c>
+      <c r="G10" s="83" t="s">
         <v>676</v>
-      </c>
-      <c r="G10" s="83" t="s">
-        <v>678</v>
       </c>
       <c r="H10" s="83"/>
       <c r="I10" s="83" t="s">
+        <v>678</v>
+      </c>
+      <c r="J10" s="83" t="s">
+        <v>687</v>
+      </c>
+      <c r="K10" s="83" t="s">
         <v>680</v>
       </c>
-      <c r="J10" s="83" t="s">
+      <c r="L10" s="83" t="s">
         <v>689</v>
-      </c>
-      <c r="K10" s="83" t="s">
-        <v>682</v>
-      </c>
-      <c r="L10" s="83" t="s">
-        <v>691</v>
       </c>
       <c r="M10" s="83"/>
       <c r="N10" s="83" t="s">
         <v>296</v>
       </c>
       <c r="O10" s="83" t="s">
+        <v>691</v>
+      </c>
+      <c r="P10" s="83" t="s">
+        <v>678</v>
+      </c>
+      <c r="Q10" s="83" t="s">
+        <v>813</v>
+      </c>
+      <c r="R10" s="83" t="s">
         <v>693</v>
-      </c>
-      <c r="P10" s="83" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q10" s="83" t="s">
-        <v>815</v>
-      </c>
-      <c r="R10" s="83" t="s">
-        <v>695</v>
       </c>
       <c r="S10" s="94"/>
       <c r="V10" s="105"/>
@@ -7910,42 +7910,42 @@
       <c r="B12" s="56"/>
       <c r="D12" s="82"/>
       <c r="E12" s="82" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F12" s="82" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G12" s="82" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="H12" s="82" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="I12" s="82"/>
       <c r="J12" s="82" t="s">
+        <v>697</v>
+      </c>
+      <c r="K12" s="82" t="s">
         <v>699</v>
       </c>
-      <c r="K12" s="82" t="s">
+      <c r="L12" s="82" t="s">
         <v>701</v>
       </c>
-      <c r="L12" s="82" t="s">
+      <c r="M12" s="82" t="s">
         <v>703</v>
-      </c>
-      <c r="M12" s="82" t="s">
-        <v>705</v>
       </c>
       <c r="N12" s="82"/>
       <c r="O12" s="82" t="s">
+        <v>705</v>
+      </c>
+      <c r="P12" s="82" t="s">
         <v>707</v>
       </c>
-      <c r="P12" s="82" t="s">
+      <c r="Q12" s="82" t="s">
         <v>709</v>
       </c>
-      <c r="Q12" s="82" t="s">
+      <c r="R12" s="82" t="s">
         <v>711</v>
-      </c>
-      <c r="R12" s="82" t="s">
-        <v>713</v>
       </c>
       <c r="S12" s="91"/>
       <c r="V12" s="105"/>
@@ -7959,31 +7959,31 @@
         <v>559</v>
       </c>
       <c r="E13" s="97" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F13" s="97" t="s">
         <v>48</v>
       </c>
       <c r="G13" s="97" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H13" s="97" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I13" s="97" t="s">
         <v>557</v>
       </c>
       <c r="J13" s="97" t="s">
+        <v>589</v>
+      </c>
+      <c r="K13" s="97" t="s">
+        <v>590</v>
+      </c>
+      <c r="L13" s="97" t="s">
         <v>591</v>
       </c>
-      <c r="K13" s="97" t="s">
+      <c r="M13" s="97" t="s">
         <v>592</v>
-      </c>
-      <c r="L13" s="97" t="s">
-        <v>593</v>
-      </c>
-      <c r="M13" s="97" t="s">
-        <v>594</v>
       </c>
       <c r="N13" s="97" t="s">
         <v>557</v>
@@ -7992,13 +7992,13 @@
         <v>561</v>
       </c>
       <c r="P13" s="97" t="s">
+        <v>593</v>
+      </c>
+      <c r="Q13" s="97" t="s">
+        <v>594</v>
+      </c>
+      <c r="R13" s="97" t="s">
         <v>595</v>
-      </c>
-      <c r="Q13" s="97" t="s">
-        <v>596</v>
-      </c>
-      <c r="R13" s="97" t="s">
-        <v>597</v>
       </c>
       <c r="S13" s="92"/>
       <c r="V13" s="105"/>
@@ -8007,42 +8007,42 @@
       <c r="B14" s="58"/>
       <c r="D14" s="83"/>
       <c r="E14" s="83" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F14" s="83" t="s">
+        <v>694</v>
+      </c>
+      <c r="G14" s="83" t="s">
+        <v>815</v>
+      </c>
+      <c r="H14" s="83" t="s">
         <v>696</v>
-      </c>
-      <c r="G14" s="83" t="s">
-        <v>817</v>
-      </c>
-      <c r="H14" s="83" t="s">
-        <v>698</v>
       </c>
       <c r="I14" s="83"/>
       <c r="J14" s="83" t="s">
+        <v>698</v>
+      </c>
+      <c r="K14" s="83" t="s">
         <v>700</v>
       </c>
-      <c r="K14" s="83" t="s">
+      <c r="L14" s="83" t="s">
         <v>702</v>
       </c>
-      <c r="L14" s="83" t="s">
+      <c r="M14" s="83" t="s">
         <v>704</v>
-      </c>
-      <c r="M14" s="83" t="s">
-        <v>706</v>
       </c>
       <c r="N14" s="83"/>
       <c r="O14" s="83" t="s">
+        <v>706</v>
+      </c>
+      <c r="P14" s="83" t="s">
         <v>708</v>
       </c>
-      <c r="P14" s="83" t="s">
+      <c r="Q14" s="83" t="s">
         <v>710</v>
       </c>
-      <c r="Q14" s="83" t="s">
+      <c r="R14" s="83" t="s">
         <v>712</v>
-      </c>
-      <c r="R14" s="83" t="s">
-        <v>714</v>
       </c>
       <c r="S14" s="94"/>
       <c r="V14" s="105"/>
@@ -8073,43 +8073,43 @@
     <row r="16" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="56"/>
       <c r="D16" s="82" t="s">
+        <v>713</v>
+      </c>
+      <c r="E16" s="82" t="s">
         <v>715</v>
-      </c>
-      <c r="E16" s="82" t="s">
-        <v>717</v>
       </c>
       <c r="F16" s="82"/>
       <c r="G16" s="82" t="s">
+        <v>717</v>
+      </c>
+      <c r="H16" s="82" t="s">
         <v>719</v>
       </c>
-      <c r="H16" s="82" t="s">
+      <c r="I16" s="82" t="s">
         <v>721</v>
-      </c>
-      <c r="I16" s="82" t="s">
-        <v>723</v>
       </c>
       <c r="J16" s="82"/>
       <c r="K16" s="82" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="L16" s="82" t="s">
         <v>289</v>
       </c>
       <c r="M16" s="82" t="s">
+        <v>725</v>
+      </c>
+      <c r="N16" s="82" t="s">
         <v>727</v>
-      </c>
-      <c r="N16" s="82" t="s">
-        <v>729</v>
       </c>
       <c r="O16" s="82"/>
       <c r="P16" s="82" t="s">
+        <v>729</v>
+      </c>
+      <c r="Q16" s="82" t="s">
         <v>731</v>
       </c>
-      <c r="Q16" s="82" t="s">
+      <c r="R16" s="82" t="s">
         <v>733</v>
-      </c>
-      <c r="R16" s="82" t="s">
-        <v>735</v>
       </c>
       <c r="S16" s="91"/>
       <c r="V16" s="105"/>
@@ -8120,49 +8120,49 @@
         <v>4</v>
       </c>
       <c r="D17" s="97" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E17" s="97" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F17" s="97" t="s">
         <v>559</v>
       </c>
       <c r="G17" s="97" t="s">
+        <v>598</v>
+      </c>
+      <c r="H17" s="97" t="s">
+        <v>599</v>
+      </c>
+      <c r="I17" s="97" t="s">
         <v>600</v>
-      </c>
-      <c r="H17" s="97" t="s">
-        <v>601</v>
-      </c>
-      <c r="I17" s="97" t="s">
-        <v>602</v>
       </c>
       <c r="J17" s="97" t="s">
         <v>557</v>
       </c>
       <c r="K17" s="97" t="s">
+        <v>601</v>
+      </c>
+      <c r="L17" s="97" t="s">
+        <v>602</v>
+      </c>
+      <c r="M17" s="97" t="s">
         <v>603</v>
       </c>
-      <c r="L17" s="97" t="s">
+      <c r="N17" s="97" t="s">
         <v>604</v>
-      </c>
-      <c r="M17" s="97" t="s">
-        <v>605</v>
-      </c>
-      <c r="N17" s="97" t="s">
-        <v>606</v>
       </c>
       <c r="O17" s="97" t="s">
         <v>557</v>
       </c>
       <c r="P17" s="97" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q17" s="97" t="s">
+        <v>606</v>
+      </c>
+      <c r="R17" s="97" t="s">
         <v>607</v>
-      </c>
-      <c r="Q17" s="97" t="s">
-        <v>608</v>
-      </c>
-      <c r="R17" s="97" t="s">
-        <v>609</v>
       </c>
       <c r="S17" s="92"/>
       <c r="V17" s="105"/>
@@ -8170,43 +8170,43 @@
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
       <c r="D18" s="83" t="s">
+        <v>714</v>
+      </c>
+      <c r="E18" s="83" t="s">
         <v>716</v>
-      </c>
-      <c r="E18" s="83" t="s">
-        <v>718</v>
       </c>
       <c r="F18" s="83"/>
       <c r="G18" s="83" t="s">
+        <v>718</v>
+      </c>
+      <c r="H18" s="83" t="s">
         <v>720</v>
       </c>
-      <c r="H18" s="83" t="s">
+      <c r="I18" s="83" t="s">
         <v>722</v>
-      </c>
-      <c r="I18" s="83" t="s">
-        <v>724</v>
       </c>
       <c r="J18" s="83"/>
       <c r="K18" s="83" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="L18" s="83" t="s">
         <v>290</v>
       </c>
       <c r="M18" s="83" t="s">
+        <v>726</v>
+      </c>
+      <c r="N18" s="83" t="s">
         <v>728</v>
-      </c>
-      <c r="N18" s="83" t="s">
-        <v>730</v>
       </c>
       <c r="O18" s="83"/>
       <c r="P18" s="83" t="s">
+        <v>730</v>
+      </c>
+      <c r="Q18" s="83" t="s">
         <v>732</v>
       </c>
-      <c r="Q18" s="83" t="s">
+      <c r="R18" s="83" t="s">
         <v>734</v>
-      </c>
-      <c r="R18" s="83" t="s">
-        <v>736</v>
       </c>
       <c r="S18" s="94"/>
       <c r="V18" s="105"/>
@@ -8234,13 +8234,13 @@
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
       <c r="D20" s="82" t="s">
+        <v>735</v>
+      </c>
+      <c r="E20" s="82" t="s">
         <v>737</v>
       </c>
-      <c r="E20" s="82" t="s">
+      <c r="F20" s="82" t="s">
         <v>739</v>
-      </c>
-      <c r="F20" s="82" t="s">
-        <v>741</v>
       </c>
       <c r="G20" s="82"/>
       <c r="H20" s="82"/>
@@ -8263,13 +8263,13 @@
         <v>5</v>
       </c>
       <c r="D21" s="97" t="s">
+        <v>608</v>
+      </c>
+      <c r="E21" s="97" t="s">
+        <v>609</v>
+      </c>
+      <c r="F21" s="97" t="s">
         <v>610</v>
-      </c>
-      <c r="E21" s="97" t="s">
-        <v>611</v>
-      </c>
-      <c r="F21" s="97" t="s">
-        <v>612</v>
       </c>
       <c r="G21" s="97" t="s">
         <v>559</v>
@@ -8291,13 +8291,13 @@
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
       <c r="D22" s="83" t="s">
+        <v>736</v>
+      </c>
+      <c r="E22" s="83" t="s">
         <v>738</v>
       </c>
-      <c r="E22" s="83" t="s">
+      <c r="F22" s="83" t="s">
         <v>740</v>
-      </c>
-      <c r="F22" s="83" t="s">
-        <v>742</v>
       </c>
       <c r="G22" s="83"/>
       <c r="H22" s="83"/>
@@ -8337,45 +8337,45 @@
     <row r="24" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="56"/>
       <c r="D24" s="82" t="s">
+        <v>741</v>
+      </c>
+      <c r="E24" s="82" t="s">
         <v>743</v>
       </c>
-      <c r="E24" s="82" t="s">
-        <v>745</v>
-      </c>
       <c r="F24" s="82" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G24" s="82" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="H24" s="82"/>
       <c r="I24" s="82" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="J24" s="82" t="s">
+        <v>745</v>
+      </c>
+      <c r="K24" s="82" t="s">
         <v>747</v>
-      </c>
-      <c r="K24" s="82" t="s">
-        <v>749</v>
       </c>
       <c r="L24" s="82" t="s">
         <v>265</v>
       </c>
       <c r="M24" s="82"/>
       <c r="N24" s="82" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="O24" s="82" t="s">
+        <v>750</v>
+      </c>
+      <c r="P24" s="82" t="s">
+        <v>810</v>
+      </c>
+      <c r="Q24" s="82" t="s">
         <v>752</v>
       </c>
-      <c r="P24" s="82" t="s">
-        <v>812</v>
-      </c>
-      <c r="Q24" s="82" t="s">
+      <c r="R24" s="82" t="s">
         <v>754</v>
-      </c>
-      <c r="R24" s="82" t="s">
-        <v>756</v>
       </c>
       <c r="S24" s="91"/>
       <c r="V24" s="60"/>
@@ -8386,49 +8386,49 @@
         <v>6</v>
       </c>
       <c r="D25" s="97" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E25" s="97" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F25" s="97" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G25" s="97" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H25" s="97" t="s">
         <v>557</v>
       </c>
       <c r="I25" s="97" t="s">
+        <v>613</v>
+      </c>
+      <c r="J25" s="97" t="s">
+        <v>614</v>
+      </c>
+      <c r="K25" s="97" t="s">
         <v>615</v>
       </c>
-      <c r="J25" s="97" t="s">
+      <c r="L25" s="97" t="s">
         <v>616</v>
-      </c>
-      <c r="K25" s="97" t="s">
-        <v>617</v>
-      </c>
-      <c r="L25" s="97" t="s">
-        <v>618</v>
       </c>
       <c r="M25" s="97" t="s">
         <v>557</v>
       </c>
       <c r="N25" s="97" t="s">
+        <v>617</v>
+      </c>
+      <c r="O25" s="97" t="s">
+        <v>618</v>
+      </c>
+      <c r="P25" s="97" t="s">
         <v>619</v>
       </c>
-      <c r="O25" s="97" t="s">
+      <c r="Q25" s="97" t="s">
         <v>620</v>
       </c>
-      <c r="P25" s="97" t="s">
+      <c r="R25" s="97" t="s">
         <v>621</v>
-      </c>
-      <c r="Q25" s="97" t="s">
-        <v>622</v>
-      </c>
-      <c r="R25" s="97" t="s">
-        <v>623</v>
       </c>
       <c r="S25" s="92"/>
       <c r="V25" s="60"/>
@@ -8436,45 +8436,45 @@
     <row r="26" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="58"/>
       <c r="D26" s="83" t="s">
+        <v>742</v>
+      </c>
+      <c r="E26" s="83" t="s">
         <v>744</v>
       </c>
-      <c r="E26" s="83" t="s">
-        <v>746</v>
-      </c>
       <c r="F26" s="83" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="G26" s="83" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="H26" s="83"/>
       <c r="I26" s="83" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J26" s="83" t="s">
+        <v>746</v>
+      </c>
+      <c r="K26" s="83" t="s">
         <v>748</v>
-      </c>
-      <c r="K26" s="83" t="s">
-        <v>750</v>
       </c>
       <c r="L26" s="83" t="s">
         <v>311</v>
       </c>
       <c r="M26" s="83"/>
       <c r="N26" s="83" t="s">
+        <v>749</v>
+      </c>
+      <c r="O26" s="83" t="s">
         <v>751</v>
       </c>
-      <c r="O26" s="83" t="s">
+      <c r="P26" s="83" t="s">
+        <v>816</v>
+      </c>
+      <c r="Q26" s="83" t="s">
         <v>753</v>
       </c>
-      <c r="P26" s="83" t="s">
-        <v>818</v>
-      </c>
-      <c r="Q26" s="83" t="s">
+      <c r="R26" s="83" t="s">
         <v>755</v>
-      </c>
-      <c r="R26" s="83" t="s">
-        <v>757</v>
       </c>
       <c r="S26" s="94"/>
       <c r="U26" s="1" t="str">
@@ -8510,43 +8510,43 @@
     <row r="28" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="56"/>
       <c r="D28" s="82" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E28" s="82"/>
       <c r="F28" s="82" t="s">
         <v>294</v>
       </c>
       <c r="G28" s="82" t="s">
+        <v>758</v>
+      </c>
+      <c r="H28" s="82" t="s">
         <v>760</v>
       </c>
-      <c r="H28" s="82" t="s">
-        <v>762</v>
-      </c>
       <c r="I28" s="82" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="J28" s="82"/>
       <c r="K28" s="82" t="s">
+        <v>762</v>
+      </c>
+      <c r="L28" s="82" t="s">
         <v>764</v>
       </c>
-      <c r="L28" s="82" t="s">
-        <v>766</v>
-      </c>
       <c r="M28" s="82" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="N28" s="82" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="O28" s="82"/>
       <c r="P28" s="82" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="Q28" s="82" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="R28" s="82" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="S28" s="91"/>
       <c r="U28" s="67" t="str">
@@ -8561,49 +8561,49 @@
         <v>7</v>
       </c>
       <c r="D29" s="97" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E29" s="97" t="s">
         <v>559</v>
       </c>
       <c r="F29" s="97" t="s">
+        <v>623</v>
+      </c>
+      <c r="G29" s="97" t="s">
+        <v>624</v>
+      </c>
+      <c r="H29" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="G29" s="97" t="s">
-        <v>626</v>
-      </c>
-      <c r="H29" s="97" t="s">
-        <v>627</v>
-      </c>
       <c r="I29" s="97" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J29" s="97" t="s">
         <v>557</v>
       </c>
       <c r="K29" s="97" t="s">
+        <v>626</v>
+      </c>
+      <c r="L29" s="97" t="s">
+        <v>627</v>
+      </c>
+      <c r="M29" s="97" t="s">
         <v>628</v>
       </c>
-      <c r="L29" s="97" t="s">
+      <c r="N29" s="97" t="s">
         <v>629</v>
-      </c>
-      <c r="M29" s="97" t="s">
-        <v>630</v>
-      </c>
-      <c r="N29" s="97" t="s">
-        <v>631</v>
       </c>
       <c r="O29" s="97" t="s">
         <v>557</v>
       </c>
       <c r="P29" s="97" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q29" s="97" t="s">
+        <v>631</v>
+      </c>
+      <c r="R29" s="97" t="s">
         <v>632</v>
-      </c>
-      <c r="Q29" s="97" t="s">
-        <v>633</v>
-      </c>
-      <c r="R29" s="97" t="s">
-        <v>634</v>
       </c>
       <c r="S29" s="92"/>
       <c r="U29" s="67" t="str">
@@ -8615,43 +8615,43 @@
     <row r="30" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="58"/>
       <c r="D30" s="83" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E30" s="83"/>
       <c r="F30" s="83" t="s">
         <v>295</v>
       </c>
       <c r="G30" s="83" t="s">
+        <v>759</v>
+      </c>
+      <c r="H30" s="83" t="s">
         <v>761</v>
       </c>
-      <c r="H30" s="83" t="s">
-        <v>763</v>
-      </c>
       <c r="I30" s="83" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="J30" s="83"/>
       <c r="K30" s="83" t="s">
+        <v>763</v>
+      </c>
+      <c r="L30" s="83" t="s">
         <v>765</v>
       </c>
-      <c r="L30" s="83" t="s">
-        <v>767</v>
-      </c>
       <c r="M30" s="83" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="N30" s="83" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O30" s="83"/>
       <c r="P30" s="83" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q30" s="83" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="R30" s="83" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="S30" s="94"/>
       <c r="U30" s="67" t="str">
@@ -8687,43 +8687,43 @@
     <row r="32" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="56"/>
       <c r="D32" s="82" t="s">
+        <v>770</v>
+      </c>
+      <c r="E32" s="82" t="s">
         <v>772</v>
-      </c>
-      <c r="E32" s="82" t="s">
-        <v>774</v>
       </c>
       <c r="F32" s="82"/>
       <c r="G32" s="82" t="s">
+        <v>774</v>
+      </c>
+      <c r="H32" s="82" t="s">
         <v>776</v>
       </c>
-      <c r="H32" s="82" t="s">
+      <c r="I32" s="82" t="s">
         <v>778</v>
       </c>
-      <c r="I32" s="82" t="s">
+      <c r="J32" s="82" t="s">
         <v>780</v>
-      </c>
-      <c r="J32" s="82" t="s">
-        <v>782</v>
       </c>
       <c r="K32" s="82"/>
       <c r="L32" s="82" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="M32" s="82" t="s">
         <v>305</v>
       </c>
       <c r="N32" s="82" t="s">
+        <v>784</v>
+      </c>
+      <c r="O32" s="82" t="s">
         <v>786</v>
-      </c>
-      <c r="O32" s="82" t="s">
-        <v>788</v>
       </c>
       <c r="P32" s="82"/>
       <c r="Q32" s="82" t="s">
         <v>264</v>
       </c>
       <c r="R32" s="82" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="S32" s="91"/>
       <c r="U32" s="67" t="str">
@@ -8738,40 +8738,40 @@
         <v>8</v>
       </c>
       <c r="D33" s="97" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E33" s="97" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F33" s="97" t="s">
         <v>559</v>
       </c>
       <c r="G33" s="97" t="s">
+        <v>635</v>
+      </c>
+      <c r="H33" s="97" t="s">
+        <v>636</v>
+      </c>
+      <c r="I33" s="97" t="s">
         <v>637</v>
       </c>
-      <c r="H33" s="97" t="s">
+      <c r="J33" s="97" t="s">
         <v>638</v>
-      </c>
-      <c r="I33" s="97" t="s">
-        <v>639</v>
-      </c>
-      <c r="J33" s="97" t="s">
-        <v>640</v>
       </c>
       <c r="K33" s="97" t="s">
         <v>557</v>
       </c>
       <c r="L33" s="97" t="s">
+        <v>639</v>
+      </c>
+      <c r="M33" s="97" t="s">
+        <v>640</v>
+      </c>
+      <c r="N33" s="97" t="s">
         <v>641</v>
       </c>
-      <c r="M33" s="97" t="s">
+      <c r="O33" s="97" t="s">
         <v>642</v>
-      </c>
-      <c r="N33" s="97" t="s">
-        <v>643</v>
-      </c>
-      <c r="O33" s="97" t="s">
-        <v>644</v>
       </c>
       <c r="P33" s="97" t="s">
         <v>557</v>
@@ -8780,7 +8780,7 @@
         <v>560</v>
       </c>
       <c r="R33" s="97" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="S33" s="92"/>
       <c r="V33" s="60"/>
@@ -8788,43 +8788,43 @@
     <row r="34" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="58"/>
       <c r="D34" s="83" t="s">
+        <v>771</v>
+      </c>
+      <c r="E34" s="83" t="s">
         <v>773</v>
-      </c>
-      <c r="E34" s="83" t="s">
-        <v>775</v>
       </c>
       <c r="F34" s="83"/>
       <c r="G34" s="83" t="s">
+        <v>775</v>
+      </c>
+      <c r="H34" s="83" t="s">
         <v>777</v>
       </c>
-      <c r="H34" s="83" t="s">
+      <c r="I34" s="83" t="s">
         <v>779</v>
       </c>
-      <c r="I34" s="83" t="s">
+      <c r="J34" s="83" t="s">
         <v>781</v>
-      </c>
-      <c r="J34" s="83" t="s">
-        <v>783</v>
       </c>
       <c r="K34" s="83"/>
       <c r="L34" s="83" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="M34" s="83" t="s">
         <v>306</v>
       </c>
       <c r="N34" s="83" t="s">
+        <v>785</v>
+      </c>
+      <c r="O34" s="83" t="s">
         <v>787</v>
-      </c>
-      <c r="O34" s="83" t="s">
-        <v>789</v>
       </c>
       <c r="P34" s="83"/>
       <c r="Q34" s="83" t="s">
         <v>303</v>
       </c>
       <c r="R34" s="83" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="S34" s="94"/>
       <c r="V34" s="60"/>
@@ -8852,39 +8852,39 @@
     <row r="36" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="56"/>
       <c r="D36" s="82" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E36" s="82" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F36" s="82" t="s">
         <v>325</v>
       </c>
       <c r="G36" s="82" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H36" s="82"/>
       <c r="I36" s="82" t="s">
+        <v>792</v>
+      </c>
+      <c r="J36" s="82" t="s">
+        <v>699</v>
+      </c>
+      <c r="K36" s="82" t="s">
         <v>794</v>
-      </c>
-      <c r="J36" s="82" t="s">
-        <v>701</v>
-      </c>
-      <c r="K36" s="82" t="s">
-        <v>796</v>
       </c>
       <c r="L36" s="82"/>
       <c r="M36" s="82" t="s">
+        <v>796</v>
+      </c>
+      <c r="N36" s="82" t="s">
         <v>798</v>
       </c>
-      <c r="N36" s="82" t="s">
+      <c r="O36" s="82" t="s">
         <v>800</v>
       </c>
-      <c r="O36" s="82" t="s">
-        <v>802</v>
-      </c>
       <c r="P36" s="82" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="Q36" s="82"/>
       <c r="R36" s="82" t="s">
@@ -8899,43 +8899,43 @@
         <v>9</v>
       </c>
       <c r="D37" s="97" t="s">
+        <v>644</v>
+      </c>
+      <c r="E37" s="97" t="s">
+        <v>645</v>
+      </c>
+      <c r="F37" s="97" t="s">
         <v>646</v>
       </c>
-      <c r="E37" s="97" t="s">
+      <c r="G37" s="97" t="s">
         <v>647</v>
-      </c>
-      <c r="F37" s="97" t="s">
-        <v>648</v>
-      </c>
-      <c r="G37" s="97" t="s">
-        <v>649</v>
       </c>
       <c r="H37" s="97" t="s">
         <v>559</v>
       </c>
       <c r="I37" s="97" t="s">
+        <v>648</v>
+      </c>
+      <c r="J37" s="97" t="s">
+        <v>649</v>
+      </c>
+      <c r="K37" s="97" t="s">
         <v>650</v>
-      </c>
-      <c r="J37" s="97" t="s">
-        <v>651</v>
-      </c>
-      <c r="K37" s="97" t="s">
-        <v>652</v>
       </c>
       <c r="L37" s="97" t="s">
         <v>557</v>
       </c>
       <c r="M37" s="97" t="s">
+        <v>651</v>
+      </c>
+      <c r="N37" s="97" t="s">
+        <v>652</v>
+      </c>
+      <c r="O37" s="97" t="s">
         <v>653</v>
       </c>
-      <c r="N37" s="97" t="s">
+      <c r="P37" s="97" t="s">
         <v>654</v>
-      </c>
-      <c r="O37" s="97" t="s">
-        <v>655</v>
-      </c>
-      <c r="P37" s="97" t="s">
-        <v>656</v>
       </c>
       <c r="Q37" s="97" t="s">
         <v>557</v>
@@ -8949,7 +8949,7 @@
     <row r="38" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="58"/>
       <c r="D38" s="83" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E38" s="83" t="s">
         <v>29</v>
@@ -8958,30 +8958,30 @@
         <v>326</v>
       </c>
       <c r="G38" s="83" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H38" s="83"/>
       <c r="I38" s="83" t="s">
+        <v>793</v>
+      </c>
+      <c r="J38" s="83" t="s">
+        <v>700</v>
+      </c>
+      <c r="K38" s="83" t="s">
         <v>795</v>
-      </c>
-      <c r="J38" s="83" t="s">
-        <v>702</v>
-      </c>
-      <c r="K38" s="83" t="s">
-        <v>797</v>
       </c>
       <c r="L38" s="83"/>
       <c r="M38" s="83" t="s">
+        <v>797</v>
+      </c>
+      <c r="N38" s="83" t="s">
         <v>799</v>
       </c>
-      <c r="N38" s="83" t="s">
+      <c r="O38" s="83" t="s">
         <v>801</v>
       </c>
-      <c r="O38" s="83" t="s">
-        <v>803</v>
-      </c>
       <c r="P38" s="83" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="Q38" s="83"/>
       <c r="R38" s="83" t="s">
@@ -9016,10 +9016,10 @@
         <v>285</v>
       </c>
       <c r="E40" s="82" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F40" s="82" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="G40" s="82"/>
       <c r="H40" s="82"/>
@@ -9048,7 +9048,7 @@
         <v>118</v>
       </c>
       <c r="F41" s="97" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G41" s="97" t="s">
         <v>559</v>
@@ -9073,10 +9073,10 @@
         <v>286</v>
       </c>
       <c r="E42" s="83" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F42" s="83" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G42" s="83"/>
       <c r="H42" s="83"/>
